--- a/streamlit_apps.xlsx
+++ b/streamlit_apps.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">santi-nue.github.io</t>
   </si>
   <si>
-    <t xml:space="preserve">santi-nue.github.io/</t>
+    <t xml:space="preserve">https://santi-nue.github.io/</t>
   </si>
   <si>
     <t xml:space="preserve">https://share.streamlit.io/santi-nue/stl1/main/app.py</t>
@@ -215,7 +215,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,8 +269,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://share.streamlit.io/santi-nue/stl1/main/app.py"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://share.streamlit.io/santi-nue/stl1/main/app.py"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://santi"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://share.streamlit.io/santi-nue/stl1/main/app.py"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://share.streamlit.io/santi-nue/stl1/main/app.py"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
